--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="187">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,520 +43,535 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>properly</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>disappointment</t>
   </si>
   <si>
-    <t>trash</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>crap</t>
+    <t>junk</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>glue</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>rip</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>paid</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>seem</t>
   </si>
   <si>
     <t>might</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>fl</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>parts</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>parts</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>almost</t>
   </si>
   <si>
-    <t>stay</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>seems</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>actually</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>ordered</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>batteries</t>
+  </si>
+  <si>
+    <t>bigger</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>bigger</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>another</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>think</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>came</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>still</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>got</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>set</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>book</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>grandson</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>good</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -917,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q138"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -925,10 +940,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -986,13 +1001,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1004,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1028,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1036,13 +1051,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1054,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K4">
-        <v>0.8518518518518519</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1078,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1086,13 +1101,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8620689655172413</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1104,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K5">
-        <v>0.8392857142857143</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1128,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1136,13 +1151,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8571428571428571</v>
+        <v>0.84</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1154,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K6">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1178,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1186,13 +1201,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8421052631578947</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1204,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K7">
-        <v>0.7083333333333334</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1228,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1236,13 +1251,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8009708737864077</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C8">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1254,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K8">
-        <v>0.6559139784946236</v>
+        <v>0.65625</v>
       </c>
       <c r="L8">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1278,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1286,13 +1301,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.796875</v>
+        <v>0.8</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1304,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K9">
         <v>0.6415094339622641</v>
@@ -1336,13 +1351,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1354,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K10">
-        <v>0.578125</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1378,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1386,13 +1401,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7849462365591398</v>
+        <v>0.796875</v>
       </c>
       <c r="C11">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1404,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K11">
-        <v>0.4585726004922067</v>
+        <v>0.4446267432321575</v>
       </c>
       <c r="L11">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="M11">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1428,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>660</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1436,13 +1451,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7746478873239436</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1454,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K12">
-        <v>0.4202898550724637</v>
+        <v>0.4074605451936872</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1478,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1486,13 +1501,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7619047619047619</v>
+        <v>0.7795698924731183</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1504,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K13">
-        <v>0.4166666666666667</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="L13">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1525,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>406</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1536,13 +1551,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7407407407407407</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1554,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K14">
-        <v>0.4107883817427386</v>
+        <v>0.3817427385892116</v>
       </c>
       <c r="L14">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="M14">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1578,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1586,13 +1601,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.72</v>
+        <v>0.7572815533980582</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1604,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K15">
-        <v>0.3584905660377358</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1628,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1636,13 +1651,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7162162162162162</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C16">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1654,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K16">
-        <v>0.35</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1678,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>78</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1686,13 +1701,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6818181818181818</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1704,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K17">
-        <v>0.3454545454545455</v>
+        <v>0.308868501529052</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1728,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1736,13 +1751,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1754,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K18">
-        <v>0.3302752293577982</v>
+        <v>0.3</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1778,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>219</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1786,13 +1801,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6571428571428571</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1804,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K19">
-        <v>0.3012048192771085</v>
+        <v>0.2265625</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1828,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1836,13 +1851,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6545454545454545</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1854,31 +1869,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K20">
-        <v>0.2592592592592592</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1886,13 +1901,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6521739130434783</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1904,19 +1919,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K21">
-        <v>0.2542372881355932</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1928,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1936,13 +1951,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6458333333333334</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1954,31 +1969,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K22">
-        <v>0.2236842105263158</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>59</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1986,13 +2001,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6386554621848739</v>
+        <v>0.625</v>
       </c>
       <c r="C23">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2004,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K23">
-        <v>0.2109375</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2028,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2057,16 +2072,16 @@
         <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K24">
-        <v>0.2</v>
+        <v>0.1596119929453263</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="N24">
         <v>0.96</v>
@@ -2078,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>953</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2086,49 +2101,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6153846153846154</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E25">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K25">
-        <v>0.1975806451612903</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2157,16 +2172,16 @@
         <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K26">
-        <v>0.1709401709401709</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2178,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2186,13 +2201,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5855072463768116</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C27">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2204,31 +2219,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K27">
-        <v>0.1690140845070423</v>
+        <v>0.136</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2236,49 +2251,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5740740740740741</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>31</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K28">
-        <v>0.1567567567567568</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2286,13 +2301,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5578947368421052</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C29">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2304,31 +2319,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K29">
-        <v>0.1528998242530756</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="L29">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>964</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2336,13 +2351,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5555555555555556</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2354,31 +2369,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K30">
-        <v>0.09192200557103064</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2386,13 +2401,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5263157894736842</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2404,31 +2419,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K31">
-        <v>0.09096816114359974</v>
+        <v>0.0859375</v>
       </c>
       <c r="L31">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="M31">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1399</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2436,13 +2451,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5172413793103449</v>
+        <v>0.5354330708661418</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2454,31 +2469,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K32">
-        <v>0.08333333333333333</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N32">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="O32">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2486,13 +2501,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5116279069767442</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2504,31 +2519,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K33">
-        <v>0.0804953560371517</v>
+        <v>0.06692913385826772</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>297</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2536,13 +2551,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5079365079365079</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2554,31 +2569,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="K34">
-        <v>0.06593406593406594</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N34">
-        <v>0.55</v>
+        <v>0.83</v>
       </c>
       <c r="O34">
-        <v>0.45</v>
+        <v>0.17</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>255</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2586,13 +2601,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5060240963855421</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C35">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2604,31 +2619,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K35">
-        <v>0.06417112299465241</v>
+        <v>0.05944055944055944</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>350</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2639,10 +2654,10 @@
         <v>0.5</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2654,31 +2669,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="K36">
-        <v>0.05013192612137203</v>
+        <v>0.05300859598853868</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N36">
-        <v>0.53</v>
+        <v>0.84</v>
       </c>
       <c r="O36">
-        <v>0.47</v>
+        <v>0.16</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>360</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2686,13 +2701,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4921875</v>
+        <v>0.5</v>
       </c>
       <c r="C37">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2704,31 +2719,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K37">
-        <v>0.04825737265415549</v>
+        <v>0.05241935483870968</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N37">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="O37">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2736,13 +2751,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.492063492063492</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2754,31 +2769,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K38">
-        <v>0.03581661891117478</v>
+        <v>0.05033557046979865</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N38">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="O38">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>673</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2786,13 +2801,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4897959183673469</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2804,31 +2819,31 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>18</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39">
+        <v>0.03398926654740608</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
         <v>25</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K39">
-        <v>0.03048780487804878</v>
-      </c>
-      <c r="L39">
-        <v>15</v>
-      </c>
-      <c r="M39">
-        <v>23</v>
-      </c>
       <c r="N39">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="O39">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>477</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2836,13 +2851,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4881889763779528</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2854,31 +2869,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K40">
-        <v>0.02717391304347826</v>
+        <v>0.03232323232323232</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N40">
-        <v>0.54</v>
+        <v>0.76</v>
       </c>
       <c r="O40">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>537</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2886,13 +2901,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4864864864864865</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2904,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2912,13 +2927,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4761904761904762</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2930,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2938,25 +2953,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.462962962962963</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E43">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2964,13 +2979,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4583333333333333</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2982,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2990,13 +3005,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4473684210526316</v>
+        <v>0.45</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3008,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3016,13 +3031,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4390243902439024</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3034,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3042,13 +3057,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4285714285714285</v>
+        <v>0.4375</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3060,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3068,13 +3083,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4218009478672986</v>
+        <v>0.421875</v>
       </c>
       <c r="C48">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D48">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3086,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3094,13 +3109,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4137931034482759</v>
+        <v>0.4123222748815166</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3112,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3120,13 +3135,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4108910891089109</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C50">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3138,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3146,13 +3161,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4044943820224719</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C51">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3164,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3172,13 +3187,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3928571428571428</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D52">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3190,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3198,13 +3213,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3770491803278688</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3216,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3224,13 +3239,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3760683760683761</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="C54">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3242,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3250,13 +3265,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3666666666666666</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D55">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3268,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3276,13 +3291,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3658536585365854</v>
+        <v>0.3861386138613861</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3294,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3302,25 +3317,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3584905660377358</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C57">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3328,13 +3343,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3469387755102041</v>
+        <v>0.375</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3346,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3354,13 +3369,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.34375</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C59">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3372,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3380,13 +3395,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3392857142857143</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3398,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3406,13 +3421,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3333333333333333</v>
+        <v>0.3620689655172414</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3424,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3432,13 +3447,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3283582089552239</v>
+        <v>0.359375</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3450,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3458,13 +3473,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3225806451612903</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3476,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3484,13 +3499,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.3188405797101449</v>
+        <v>0.3504273504273504</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D64">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3502,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3510,13 +3525,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.3137254901960784</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C65">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3528,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3536,13 +3551,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3554,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3562,13 +3577,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.3071428571428572</v>
+        <v>0.3188405797101449</v>
       </c>
       <c r="C67">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D67">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3580,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3588,13 +3603,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.3043478260869565</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C68">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D68">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3606,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>192</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3614,13 +3629,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.3035714285714285</v>
+        <v>0.3006329113924051</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D69">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3632,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>39</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3640,13 +3655,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2993630573248408</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C70">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3658,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3666,13 +3681,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2989690721649484</v>
+        <v>0.2929936305732484</v>
       </c>
       <c r="C71">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D71">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3684,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3692,13 +3707,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2959183673469388</v>
+        <v>0.29</v>
       </c>
       <c r="C72">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D72">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3710,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>69</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3718,25 +3733,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2879746835443038</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="C73">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D73">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>225</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3744,13 +3759,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2857142857142857</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3762,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3770,13 +3785,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2837837837837838</v>
+        <v>0.2803738317757009</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D75">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3788,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>53</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3796,13 +3811,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.28</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3814,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>54</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3822,13 +3837,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2747252747252747</v>
+        <v>0.2721518987341772</v>
       </c>
       <c r="C77">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3840,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>66</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3848,25 +3863,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.273015873015873</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="C78">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D78">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>229</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3874,25 +3889,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.2633928571428572</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C79">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E79">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>495</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3900,13 +3915,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2542372881355932</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C80">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3918,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3926,13 +3941,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2523364485981308</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C81">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D81">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3944,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>160</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3952,13 +3967,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.25</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C82">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3970,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3978,25 +3993,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.25</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C83">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D83">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E83">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F83">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4004,13 +4019,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.2474226804123711</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="C84">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D84">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4022,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4030,25 +4045,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2442528735632184</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="C85">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="D85">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>263</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4056,13 +4071,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.2432432432432433</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C86">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D86">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4074,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4082,25 +4097,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.2412060301507538</v>
+        <v>0.2538461538461538</v>
       </c>
       <c r="C87">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D87">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E87">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>151</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4108,13 +4123,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.2404371584699453</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C88">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D88">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4126,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>139</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4134,13 +4149,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2371134020618557</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="C89">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D89">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4152,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4160,13 +4175,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2368421052631579</v>
+        <v>0.2356828193832599</v>
       </c>
       <c r="C90">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="D90">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4178,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>58</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4186,25 +4201,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.235632183908046</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="C91">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D91">
         <v>42</v>
       </c>
       <c r="E91">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4212,25 +4227,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2239467849223947</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="C92">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D92">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E92">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>350</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4238,13 +4253,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2222222222222222</v>
+        <v>0.2198952879581152</v>
       </c>
       <c r="C93">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D93">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4256,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>84</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4264,25 +4279,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2076923076923077</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C94">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D94">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4290,13 +4305,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.2027027027027027</v>
+        <v>0.2040229885057471</v>
       </c>
       <c r="C95">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D95">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4308,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>59</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4316,25 +4331,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1989528795811518</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="C96">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D96">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>153</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4342,25 +4357,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1979166666666667</v>
+        <v>0.1884816753926702</v>
       </c>
       <c r="C97">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D97">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4368,7 +4383,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.196078431372549</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="C98">
         <v>20</v>
@@ -4386,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4394,13 +4409,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1953125</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C99">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D99">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4412,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4446,22 +4461,22 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1785714285714286</v>
+        <v>0.1808219178082192</v>
       </c>
       <c r="C101">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D101">
         <v>66</v>
       </c>
       <c r="E101">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>299</v>
@@ -4472,7 +4487,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1785714285714286</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="C102">
         <v>15</v>
@@ -4490,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4498,25 +4513,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1773584905660377</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C103">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D103">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>218</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4524,25 +4539,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1739130434782609</v>
+        <v>0.1781376518218623</v>
       </c>
       <c r="C104">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D104">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>133</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4550,25 +4565,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1714285714285714</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C105">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D105">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E105">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F105">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>261</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4576,25 +4591,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1711711711711712</v>
+        <v>0.171875</v>
       </c>
       <c r="C106">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E106">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4602,25 +4617,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1633986928104575</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C107">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D107">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E107">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4628,25 +4643,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1597633136094675</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="C108">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D108">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E108">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F108">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4654,13 +4669,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1542857142857143</v>
+        <v>0.1689189189189189</v>
       </c>
       <c r="C109">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D109">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4672,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4680,25 +4695,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1538461538461539</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C110">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D110">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>165</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4706,25 +4721,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.152046783625731</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="C111">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D111">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E111">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4732,25 +4747,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1510204081632653</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="C112">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D112">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E112">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>208</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4758,25 +4773,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1470588235294118</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="C113">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D113">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>87</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4784,7 +4799,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1450381679389313</v>
+        <v>0.1407407407407407</v>
       </c>
       <c r="C114">
         <v>19</v>
@@ -4802,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4810,13 +4825,13 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1436170212765958</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="C115">
+        <v>26</v>
+      </c>
+      <c r="D115">
         <v>27</v>
-      </c>
-      <c r="D115">
-        <v>28</v>
       </c>
       <c r="E115">
         <v>0.04</v>
@@ -4828,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4836,25 +4851,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.140495867768595</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="C116">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E116">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4862,25 +4877,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.1322869955156951</v>
+        <v>0.1384180790960452</v>
       </c>
       <c r="C117">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D117">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E117">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F117">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>387</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4888,19 +4903,19 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.1304347826086956</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C118">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D118">
         <v>17</v>
       </c>
       <c r="E118">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F118">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
@@ -4914,25 +4929,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.1218130311614731</v>
+        <v>0.1329479768786127</v>
       </c>
       <c r="C119">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D119">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E119">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F119">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>310</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4940,25 +4955,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1139240506329114</v>
+        <v>0.1260364842454395</v>
       </c>
       <c r="C120">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D120">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>140</v>
+        <v>527</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4966,25 +4981,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.1095571095571096</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="C121">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D121">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E121">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>382</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4992,25 +5007,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.1094890510948905</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="C122">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D122">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>122</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5018,25 +5033,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.108695652173913</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="C123">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D123">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E123">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F123">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>164</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5044,25 +5059,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.1079136690647482</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C124">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D124">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E124">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F124">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>248</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5070,25 +5085,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.1072607260726073</v>
+        <v>0.10625</v>
       </c>
       <c r="C125">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D125">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E125">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F125">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>541</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5096,25 +5111,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.09438775510204081</v>
+        <v>0.1053864168618267</v>
       </c>
       <c r="C126">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D126">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E126">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F126">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>710</v>
+        <v>382</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5122,25 +5137,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.08857142857142856</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C127">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D127">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E127">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F127">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>319</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5148,25 +5163,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.08487654320987655</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="C128">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D128">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E128">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F128">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>593</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5174,25 +5189,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.07870370370370371</v>
+        <v>0.1040462427745665</v>
       </c>
       <c r="C129">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D129">
         <v>19</v>
       </c>
       <c r="E129">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="F129">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5200,25 +5215,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.07276995305164319</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C130">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D130">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E130">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F130">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>395</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5226,25 +5241,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.06613226452905811</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="C131">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D131">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E131">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="F131">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>466</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5252,25 +5267,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.06465517241379311</v>
+        <v>0.09198113207547169</v>
       </c>
       <c r="C132">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E132">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="F132">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>217</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5278,25 +5293,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.05882352941176471</v>
+        <v>0.07672634271099744</v>
       </c>
       <c r="C133">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D133">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E133">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F133">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>416</v>
+        <v>722</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5304,25 +5319,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.05831533477321815</v>
+        <v>0.07554671968190854</v>
       </c>
       <c r="C134">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D134">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E134">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="F134">
-        <v>0.8200000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5330,25 +5345,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.05555555555555555</v>
+        <v>0.06933744221879815</v>
       </c>
       <c r="C135">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D135">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E135">
-        <v>0.55</v>
+        <v>0.12</v>
       </c>
       <c r="F135">
-        <v>0.45</v>
+        <v>0.88</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>255</v>
+        <v>604</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5356,25 +5371,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.05369127516778523</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="C136">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D136">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E136">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="F136">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5382,25 +5397,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.04509283819628647</v>
+        <v>0.06545454545454546</v>
       </c>
       <c r="C137">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D137">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E137">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
       <c r="F137">
-        <v>0.47</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>360</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5408,25 +5423,103 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.02352941176470588</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="C138">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D138">
+        <v>37</v>
+      </c>
+      <c r="E138">
+        <v>0.3</v>
+      </c>
+      <c r="F138">
+        <v>0.7</v>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="C139">
+        <v>17</v>
+      </c>
+      <c r="D139">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>0.06</v>
+      </c>
+      <c r="F139">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140">
+        <v>0.05161290322580645</v>
+      </c>
+      <c r="C140">
+        <v>24</v>
+      </c>
+      <c r="D140">
         <v>28</v>
       </c>
-      <c r="E138">
+      <c r="E140">
+        <v>0.14</v>
+      </c>
+      <c r="F140">
+        <v>0.86</v>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141">
+        <v>0.02503681885125184</v>
+      </c>
+      <c r="C141">
+        <v>17</v>
+      </c>
+      <c r="D141">
+        <v>30</v>
+      </c>
+      <c r="E141">
         <v>0.43</v>
       </c>
-      <c r="F138">
+      <c r="F141">
         <v>0.5700000000000001</v>
       </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138">
-        <v>664</v>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
